--- a/ITEST/itest.WebService/openl-repository/deployment2/simple2/module2.xlsx
+++ b/ITEST/itest.WebService/openl-repository/deployment2/simple2/module2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\deployment2\simple2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF7D9CE-EA35-4BC6-8913-C1E9EF540A3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3A59A8-B03F-41B8-A9FB-58A994A8C2A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="31815" windowHeight="20565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12735" yWindow="810" windowWidth="21495" windowHeight="18375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>moreValues</t>
   </si>
   <si>
-    <t>*Step1</t>
-  </si>
-  <si>
     <t>properties</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>*Values1</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult calc(Integer a)</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>=sprOneRow(a)</t>
   </si>
   <si>
-    <t>*Step2</t>
-  </si>
-  <si>
     <t>Step3</t>
   </si>
   <si>
@@ -87,16 +78,25 @@
     <t>Spreadsheet SpreadsheetResult sprTwoTwo(Integer myVar)</t>
   </si>
   <si>
-    <t>*Step3</t>
-  </si>
-  <si>
-    <t>*Step4</t>
-  </si>
-  <si>
-    <t>*Values2</t>
-  </si>
-  <si>
-    <t>*Formula2</t>
+    <t>Values1*</t>
+  </si>
+  <si>
+    <t>Step2*</t>
+  </si>
+  <si>
+    <t>Step1*</t>
+  </si>
+  <si>
+    <t>Values2*</t>
+  </si>
+  <si>
+    <t>Formula2*</t>
+  </si>
+  <si>
+    <t>Step4*</t>
+  </si>
+  <si>
+    <t>Step3*</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="B3:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="5"/>
@@ -547,10 +547,10 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -565,20 +565,20 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>2</v>
@@ -594,24 +594,24 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="10"/>
     </row>
@@ -638,28 +638,28 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -667,21 +667,21 @@
         <v>0</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -689,28 +689,28 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -718,32 +718,32 @@
         <v>0</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
